--- a/conf/drivers/SMA_Modbus-TI-en-18.xlsx
+++ b/conf/drivers/SMA_Modbus-TI-en-18.xlsx
@@ -33,7 +33,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'SI 6.0-8.0H-11, PKG 3.1'!$A$2:$M$317</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3705,6 +3705,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3723,13 +3730,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="180">
     <cellStyle name="Euro" xfId="6"/>
@@ -4653,17 +4653,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle2" filterMode="1" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Tabelle2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="65.1640625" style="9" customWidth="1"/>
@@ -4678,22 +4678,22 @@
     <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
       <c r="I1" s="146"/>
       <c r="N1" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>30051</v>
       </c>
@@ -4756,7 +4756,7 @@
       <c r="H3" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="I3" s="153"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="1" t="s">
         <v>754</v>
       </c>
@@ -4764,7 +4764,7 @@
         <f>IF(C3="U32","uint32",IF(C3="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L3" s="155">
+      <c r="L3" s="149">
         <f>RIGHT(C3,2)/16</f>
         <v>2</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>'dev_class': {'register': 30051, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Device class'},</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>30053</v>
       </c>
@@ -4798,7 +4798,7 @@
       <c r="H4" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="I4" s="153"/>
+      <c r="I4" s="147"/>
       <c r="J4" s="1" t="s">
         <v>755</v>
       </c>
@@ -4806,7 +4806,7 @@
         <f t="shared" ref="K4:K5" si="0">IF(C4="U32","uint32",IF(C4="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L4" s="155">
+      <c r="L4" s="149">
         <f t="shared" ref="L4:L5" si="1">RIGHT(C4,2)/16</f>
         <v>2</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>'dev_type': {'register': 30053, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Device type'},</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>30057</v>
       </c>
@@ -4840,7 +4840,7 @@
       <c r="H5" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="I5" s="153"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="1" t="s">
         <v>756</v>
       </c>
@@ -4848,7 +4848,7 @@
         <f t="shared" si="0"/>
         <v>uint32</v>
       </c>
-      <c r="L5" s="155">
+      <c r="L5" s="149">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>'serial': {'register': 30057, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Serial number'},</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>30059</v>
       </c>
@@ -4882,9 +4882,9 @@
       <c r="H6" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="I6" s="153"/>
-    </row>
-    <row r="7" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="147"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>30197</v>
       </c>
@@ -4902,9 +4902,9 @@
         <v>3</v>
       </c>
       <c r="G7" s="37"/>
-      <c r="I7" s="153"/>
-    </row>
-    <row r="8" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="147"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>30199</v>
       </c>
@@ -4926,9 +4926,9 @@
       <c r="G8" s="37">
         <v>1</v>
       </c>
-      <c r="I8" s="153"/>
-    </row>
-    <row r="9" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I8" s="147"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>30201</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="37"/>
-      <c r="I9" s="153"/>
+      <c r="I9" s="147"/>
       <c r="J9" s="1" t="s">
         <v>788</v>
       </c>
@@ -4954,7 +4954,7 @@
         <f>IF(C9="U32","uint32",IF(C9="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L9" s="155">
+      <c r="L9" s="149">
         <f>RIGHT(C9,2)/16</f>
         <v>2</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>'condition': {'register': 30201, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Condition'},</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>30211</v>
       </c>
@@ -4985,9 +4985,9 @@
         <v>3</v>
       </c>
       <c r="G10" s="37"/>
-      <c r="I10" s="153"/>
-    </row>
-    <row r="11" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="147"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>30213</v>
       </c>
@@ -5005,9 +5005,9 @@
         <v>3</v>
       </c>
       <c r="G11" s="37"/>
-      <c r="I11" s="153"/>
-    </row>
-    <row r="12" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="147"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>30215</v>
       </c>
@@ -5025,9 +5025,9 @@
         <v>3</v>
       </c>
       <c r="G12" s="37"/>
-      <c r="I12" s="153"/>
-    </row>
-    <row r="13" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="147"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>30559</v>
       </c>
@@ -5045,9 +5045,9 @@
         <v>3</v>
       </c>
       <c r="G13" s="37"/>
-      <c r="I13" s="153"/>
-    </row>
-    <row r="14" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="147"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>30561</v>
       </c>
@@ -5065,9 +5065,9 @@
         <v>3</v>
       </c>
       <c r="G14" s="37"/>
-      <c r="I14" s="153"/>
-    </row>
-    <row r="15" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="147"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>30563</v>
       </c>
@@ -5085,9 +5085,9 @@
         <v>3</v>
       </c>
       <c r="G15" s="37"/>
-      <c r="I15" s="153"/>
-    </row>
-    <row r="16" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="147"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>30565</v>
       </c>
@@ -5105,9 +5105,9 @@
         <v>3</v>
       </c>
       <c r="G16" s="37"/>
-      <c r="I16" s="153"/>
-    </row>
-    <row r="17" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="147"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>30567</v>
       </c>
@@ -5127,9 +5127,9 @@
         <v>3</v>
       </c>
       <c r="G17" s="37"/>
-      <c r="I17" s="153"/>
-    </row>
-    <row r="18" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="147"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>30569</v>
       </c>
@@ -5149,9 +5149,9 @@
         <v>3</v>
       </c>
       <c r="G18" s="37"/>
-      <c r="I18" s="153"/>
-    </row>
-    <row r="19" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="147"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>30571</v>
       </c>
@@ -5171,9 +5171,9 @@
         <v>3</v>
       </c>
       <c r="G19" s="37"/>
-      <c r="I19" s="153"/>
-    </row>
-    <row r="20" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I19" s="147"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>30577</v>
       </c>
@@ -5193,9 +5193,9 @@
         <v>3</v>
       </c>
       <c r="G20" s="37"/>
-      <c r="I20" s="153"/>
-    </row>
-    <row r="21" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I20" s="147"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>30579</v>
       </c>
@@ -5215,9 +5215,9 @@
         <v>3</v>
       </c>
       <c r="G21" s="37"/>
-      <c r="I21" s="153"/>
-    </row>
-    <row r="22" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I21" s="147"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>30581</v>
       </c>
@@ -5237,9 +5237,9 @@
         <v>3</v>
       </c>
       <c r="G22" s="37"/>
-      <c r="I22" s="153"/>
-    </row>
-    <row r="23" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I22" s="147"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>30583</v>
       </c>
@@ -5259,9 +5259,9 @@
         <v>3</v>
       </c>
       <c r="G23" s="37"/>
-      <c r="I23" s="153"/>
-    </row>
-    <row r="24" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I23" s="147"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>30585</v>
       </c>
@@ -5283,9 +5283,9 @@
       <c r="G24" s="37">
         <v>1</v>
       </c>
-      <c r="I24" s="153"/>
-    </row>
-    <row r="25" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I24" s="147"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>30587</v>
       </c>
@@ -5305,9 +5305,9 @@
         <v>3</v>
       </c>
       <c r="G25" s="37"/>
-      <c r="I25" s="153"/>
-    </row>
-    <row r="26" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I25" s="147"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>30589</v>
       </c>
@@ -5327,9 +5327,9 @@
         <v>3</v>
       </c>
       <c r="G26" s="37"/>
-      <c r="I26" s="153"/>
-    </row>
-    <row r="27" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I26" s="147"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>30591</v>
       </c>
@@ -5349,9 +5349,9 @@
         <v>3</v>
       </c>
       <c r="G27" s="37"/>
-      <c r="I27" s="153"/>
-    </row>
-    <row r="28" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I27" s="147"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>30593</v>
       </c>
@@ -5371,9 +5371,9 @@
         <v>3</v>
       </c>
       <c r="G28" s="37"/>
-      <c r="I28" s="153"/>
-    </row>
-    <row r="29" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I28" s="147"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>30595</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="37"/>
-      <c r="I29" s="153"/>
+      <c r="I29" s="147"/>
       <c r="J29" s="1" t="s">
         <v>798</v>
       </c>
@@ -5401,7 +5401,7 @@
         <f t="shared" ref="K29:K38" si="4">IF(C29="U32","uint32",IF(C29="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L29" s="155">
+      <c r="L29" s="149">
         <f t="shared" ref="L29:L38" si="5">RIGHT(C29,2)/16</f>
         <v>2</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>'E_absorbed': {'register': 30595, 'words': 2, 'datatype': 'uint32', 'multiplier': 1, 'unit': 'Wh', 'description': 'Absorbed energy'},</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>30597</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="37"/>
-      <c r="I30" s="153"/>
+      <c r="I30" s="147"/>
       <c r="J30" s="1" t="s">
         <v>799</v>
       </c>
@@ -5442,7 +5442,7 @@
         <f t="shared" si="4"/>
         <v>uint32</v>
       </c>
-      <c r="L30" s="155">
+      <c r="L30" s="149">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>'E_released': {'register': 30597, 'words': 2, 'datatype': 'uint32', 'multiplier': 1, 'unit': 'Wh', 'description': 'Released energy'},</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>30599</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="37"/>
-      <c r="I31" s="153"/>
+      <c r="I31" s="147"/>
       <c r="J31" s="1" t="s">
         <v>757</v>
       </c>
@@ -5481,7 +5481,7 @@
         <f t="shared" si="4"/>
         <v>uint32</v>
       </c>
-      <c r="L31" s="155">
+      <c r="L31" s="149">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>'num_grid_conn': {'register': 30599, 'words': 2, 'datatype': 'uint32', 'multiplier': 1, 'unit': null, 'description': 'Number of grid connections'},</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="38">
         <v>30775</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="40"/>
-      <c r="I32" s="154"/>
+      <c r="I32" s="148"/>
       <c r="J32" s="1" t="s">
         <v>789</v>
       </c>
@@ -5522,7 +5522,7 @@
         <f t="shared" si="4"/>
         <v>int32</v>
       </c>
-      <c r="L32" s="155">
+      <c r="L32" s="149">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>'P': {'register': 30775, 'words': 2, 'datatype': 'int32', 'multiplier': 1, 'unit': 'W', 'description': 'Power'},</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>30777</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="37"/>
-      <c r="I33" s="153"/>
+      <c r="I33" s="147"/>
       <c r="J33" s="1" t="s">
         <v>758</v>
       </c>
@@ -5563,7 +5563,7 @@
         <f t="shared" si="4"/>
         <v>int32</v>
       </c>
-      <c r="L33" s="155">
+      <c r="L33" s="149">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>'P1': {'register': 30777, 'words': 2, 'datatype': 'int32', 'multiplier': 1, 'unit': 'W', 'description': 'Power L1'},</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>30779</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="37"/>
-      <c r="I34" s="153"/>
+      <c r="I34" s="147"/>
       <c r="J34" s="1" t="s">
         <v>759</v>
       </c>
@@ -5604,7 +5604,7 @@
         <f t="shared" si="4"/>
         <v>int32</v>
       </c>
-      <c r="L34" s="155">
+      <c r="L34" s="149">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>'P2': {'register': 30779, 'words': 2, 'datatype': 'int32', 'multiplier': 1, 'unit': 'W', 'description': 'Power L2'},</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>30781</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="37"/>
-      <c r="I35" s="153"/>
+      <c r="I35" s="147"/>
       <c r="J35" s="1" t="s">
         <v>760</v>
       </c>
@@ -5645,7 +5645,7 @@
         <f t="shared" si="4"/>
         <v>int32</v>
       </c>
-      <c r="L35" s="155">
+      <c r="L35" s="149">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>'P3': {'register': 30781, 'words': 2, 'datatype': 'int32', 'multiplier': 1, 'unit': 'W', 'description': 'Power L3'},</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>30783</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="37"/>
-      <c r="I36" s="153"/>
+      <c r="I36" s="147"/>
       <c r="J36" s="1" t="s">
         <v>764</v>
       </c>
@@ -5686,7 +5686,7 @@
         <f t="shared" si="4"/>
         <v>uint32</v>
       </c>
-      <c r="L36" s="155">
+      <c r="L36" s="149">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>'V1': {'register': 30783, 'words': 2, 'datatype': 'uint32', 'multiplier': 0.01, 'unit': 'V', 'description': 'Grid voltage phase L1'},</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>30785</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="37"/>
-      <c r="I37" s="153"/>
+      <c r="I37" s="147"/>
       <c r="J37" s="1" t="s">
         <v>765</v>
       </c>
@@ -5727,7 +5727,7 @@
         <f t="shared" si="4"/>
         <v>uint32</v>
       </c>
-      <c r="L37" s="155">
+      <c r="L37" s="149">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>'V2': {'register': 30785, 'words': 2, 'datatype': 'uint32', 'multiplier': 0.01, 'unit': 'V', 'description': 'Grid voltage phase L2'},</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>30787</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="37"/>
-      <c r="I38" s="153"/>
+      <c r="I38" s="147"/>
       <c r="J38" s="1" t="s">
         <v>766</v>
       </c>
@@ -5768,7 +5768,7 @@
         <f t="shared" si="4"/>
         <v>uint32</v>
       </c>
-      <c r="L38" s="155">
+      <c r="L38" s="149">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>'V3': {'register': 30787, 'words': 2, 'datatype': 'uint32', 'multiplier': 0.01, 'unit': 'V', 'description': 'Grid voltage phase L3'},</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>30797</v>
       </c>
@@ -5801,9 +5801,9 @@
         <v>3</v>
       </c>
       <c r="G39" s="37"/>
-      <c r="I39" s="153"/>
-    </row>
-    <row r="40" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I39" s="147"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>30799</v>
       </c>
@@ -5823,9 +5823,9 @@
         <v>3</v>
       </c>
       <c r="G40" s="37"/>
-      <c r="I40" s="153"/>
-    </row>
-    <row r="41" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I40" s="147"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>30801</v>
       </c>
@@ -5845,9 +5845,9 @@
         <v>3</v>
       </c>
       <c r="G41" s="37"/>
-      <c r="I41" s="153"/>
-    </row>
-    <row r="42" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I41" s="147"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>30803</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="37"/>
-      <c r="I42" s="153"/>
+      <c r="I42" s="147"/>
       <c r="J42" s="1" t="s">
         <v>767</v>
       </c>
@@ -5875,7 +5875,7 @@
         <f>IF(C42="U32","uint32",IF(C42="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L42" s="155">
+      <c r="L42" s="149">
         <f>RIGHT(C42,2)/16</f>
         <v>2</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>'freq': {'register': 30803, 'words': 2, 'datatype': 'uint32', 'multiplier': 0.01, 'unit': 'Hz', 'description': 'Grid frequency'},</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>30805</v>
       </c>
@@ -5908,9 +5908,9 @@
         <v>3</v>
       </c>
       <c r="G43" s="37"/>
-      <c r="I43" s="153"/>
-    </row>
-    <row r="44" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I43" s="147"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>30807</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="37"/>
-      <c r="I44" s="153"/>
+      <c r="I44" s="147"/>
       <c r="J44" s="1" t="s">
         <v>768</v>
       </c>
@@ -5938,7 +5938,7 @@
         <f t="shared" ref="K44:K47" si="8">IF(C44="U32","uint32",IF(C44="S32","int32",""))</f>
         <v>int32</v>
       </c>
-      <c r="L44" s="155">
+      <c r="L44" s="149">
         <f t="shared" ref="L44:L47" si="9">RIGHT(C44,2)/16</f>
         <v>2</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>'Q1': {'register': 30807, 'words': 2, 'datatype': 'int32', 'multiplier': 1, 'unit': 'VAr', 'description': 'Reactive power L1'},</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>30809</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="37"/>
-      <c r="I45" s="153"/>
+      <c r="I45" s="147"/>
       <c r="J45" s="1" t="s">
         <v>769</v>
       </c>
@@ -5979,7 +5979,7 @@
         <f t="shared" si="8"/>
         <v>int32</v>
       </c>
-      <c r="L45" s="155">
+      <c r="L45" s="149">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>'Q2': {'register': 30809, 'words': 2, 'datatype': 'int32', 'multiplier': 1, 'unit': 'VAr', 'description': 'Reactive power L2'},</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>30811</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="37"/>
-      <c r="I46" s="153"/>
+      <c r="I46" s="147"/>
       <c r="J46" s="1" t="s">
         <v>770</v>
       </c>
@@ -6020,7 +6020,7 @@
         <f t="shared" si="8"/>
         <v>int32</v>
       </c>
-      <c r="L46" s="155">
+      <c r="L46" s="149">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>'Q3': {'register': 30811, 'words': 2, 'datatype': 'int32', 'multiplier': 1, 'unit': 'VAr', 'description': 'Reactive power L3'},</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>30825</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="37"/>
-      <c r="I47" s="153"/>
+      <c r="I47" s="147"/>
       <c r="J47" s="1" t="s">
         <v>771</v>
       </c>
@@ -6059,7 +6059,7 @@
         <f t="shared" si="8"/>
         <v>uint32</v>
       </c>
-      <c r="L47" s="155">
+      <c r="L47" s="149">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>'operating_mode': {'register': 30825, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Operating mode of stat.V stab., stat.V stab. config.'},</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>30831</v>
       </c>
@@ -6090,9 +6090,9 @@
         <v>3</v>
       </c>
       <c r="G48" s="37"/>
-      <c r="I48" s="153"/>
-    </row>
-    <row r="49" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I48" s="147"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>30833</v>
       </c>
@@ -6110,9 +6110,9 @@
         <v>3</v>
       </c>
       <c r="G49" s="37"/>
-      <c r="I49" s="153"/>
-    </row>
-    <row r="50" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I49" s="147"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>30835</v>
       </c>
@@ -6130,9 +6130,9 @@
         <v>3</v>
       </c>
       <c r="G50" s="37"/>
-      <c r="I50" s="153"/>
-    </row>
-    <row r="51" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I50" s="147"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>30843</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="37"/>
-      <c r="I51" s="153"/>
+      <c r="I51" s="147"/>
       <c r="J51" s="1" t="s">
         <v>772</v>
       </c>
@@ -6160,7 +6160,7 @@
         <f t="shared" ref="K51:K56" si="12">IF(C51="U32","uint32",IF(C51="S32","int32",""))</f>
         <v>int32</v>
       </c>
-      <c r="L51" s="155">
+      <c r="L51" s="149">
         <f t="shared" ref="L51:L56" si="13">RIGHT(C51,2)/16</f>
         <v>2</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>'I_batt': {'register': 30843, 'words': 2, 'datatype': 'int32', 'multiplier': 0.001, 'unit': 'A', 'description': 'Battery current'},</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>30845</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="37"/>
-      <c r="I52" s="153"/>
+      <c r="I52" s="147"/>
       <c r="J52" s="1" t="s">
         <v>773</v>
       </c>
@@ -6201,7 +6201,7 @@
         <f t="shared" si="12"/>
         <v>uint32</v>
       </c>
-      <c r="L52" s="155">
+      <c r="L52" s="149">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>'soc': {'register': 30845, 'words': 2, 'datatype': 'uint32', 'multiplier': 1, 'unit': '%', 'description': 'Current battery state of charge'},</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>30847</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="37"/>
-      <c r="I53" s="153"/>
+      <c r="I53" s="147"/>
       <c r="J53" s="1" t="s">
         <v>774</v>
       </c>
@@ -6242,7 +6242,7 @@
         <f t="shared" si="12"/>
         <v>uint32</v>
       </c>
-      <c r="L53" s="155">
+      <c r="L53" s="149">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>'E_batt': {'register': 30847, 'words': 2, 'datatype': 'uint32', 'multiplier': 1, 'unit': '%', 'description': 'Current battery capacity'},</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>30849</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="G54" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="I54" s="153"/>
+      <c r="I54" s="147"/>
       <c r="J54" s="1" t="s">
         <v>775</v>
       </c>
@@ -6285,7 +6285,7 @@
         <f t="shared" si="12"/>
         <v>int32</v>
       </c>
-      <c r="L54" s="155">
+      <c r="L54" s="149">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>'batt_temp': {'register': 30849, 'words': 2, 'datatype': 'int32', 'multiplier': 0.1, 'unit': '°C', 'description': 'Battery temperature'},</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>30851</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="37"/>
-      <c r="I55" s="153"/>
+      <c r="I55" s="147"/>
       <c r="J55" s="1" t="s">
         <v>786</v>
       </c>
@@ -6326,7 +6326,7 @@
         <f t="shared" si="12"/>
         <v>uint32</v>
       </c>
-      <c r="L55" s="155">
+      <c r="L55" s="149">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>'V_batt': {'register': 30851, 'words': 2, 'datatype': 'uint32', 'multiplier': 0.01, 'unit': 'V', 'description': 'Battery voltage'},</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>30853</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="G56" s="37"/>
-      <c r="I56" s="153"/>
+      <c r="I56" s="147"/>
       <c r="J56" s="1" t="s">
         <v>776</v>
       </c>
@@ -6365,7 +6365,7 @@
         <f t="shared" si="12"/>
         <v>uint32</v>
       </c>
-      <c r="L56" s="155">
+      <c r="L56" s="149">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>'charge_mode': {'register': 30853, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Active battery charging mode'},</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>30855</v>
       </c>
@@ -6398,9 +6398,9 @@
         <v>3</v>
       </c>
       <c r="G57" s="37"/>
-      <c r="I57" s="153"/>
-    </row>
-    <row r="58" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I57" s="147"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>30857</v>
       </c>
@@ -6418,9 +6418,9 @@
         <v>3</v>
       </c>
       <c r="G58" s="37"/>
-      <c r="I58" s="153"/>
-    </row>
-    <row r="59" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I58" s="147"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>30859</v>
       </c>
@@ -6438,9 +6438,9 @@
         <v>3</v>
       </c>
       <c r="G59" s="37"/>
-      <c r="I59" s="153"/>
-    </row>
-    <row r="60" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I59" s="147"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>30861</v>
       </c>
@@ -6460,9 +6460,9 @@
         <v>3</v>
       </c>
       <c r="G60" s="37"/>
-      <c r="I60" s="153"/>
-    </row>
-    <row r="61" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I60" s="147"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>30865</v>
       </c>
@@ -6482,9 +6482,9 @@
         <v>3</v>
       </c>
       <c r="G61" s="37"/>
-      <c r="I61" s="153"/>
-    </row>
-    <row r="62" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I61" s="147"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>30867</v>
       </c>
@@ -6504,9 +6504,9 @@
         <v>3</v>
       </c>
       <c r="G62" s="37"/>
-      <c r="I62" s="153"/>
-    </row>
-    <row r="63" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I62" s="147"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>30869</v>
       </c>
@@ -6526,9 +6526,9 @@
         <v>3</v>
       </c>
       <c r="G63" s="37"/>
-      <c r="I63" s="153"/>
-    </row>
-    <row r="64" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I63" s="147"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>30871</v>
       </c>
@@ -6548,9 +6548,9 @@
         <v>3</v>
       </c>
       <c r="G64" s="37"/>
-      <c r="I64" s="153"/>
-    </row>
-    <row r="65" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I64" s="147"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>30873</v>
       </c>
@@ -6570,9 +6570,9 @@
         <v>3</v>
       </c>
       <c r="G65" s="37"/>
-      <c r="I65" s="153"/>
-    </row>
-    <row r="66" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I65" s="147"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>30875</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="37"/>
-      <c r="I66" s="153"/>
+      <c r="I66" s="147"/>
       <c r="J66" s="1" t="s">
         <v>777</v>
       </c>
@@ -6598,7 +6598,7 @@
         <f t="shared" ref="K66:K67" si="16">IF(C66="U32","uint32",IF(C66="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L66" s="155">
+      <c r="L66" s="149">
         <f t="shared" ref="L66:L67" si="17">RIGHT(C66,2)/16</f>
         <v>2</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>'relay_status': {'register': 30875, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Multifunction relay status'},</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>30877</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="37"/>
-      <c r="I67" s="153"/>
+      <c r="I67" s="147"/>
       <c r="J67" s="1" t="s">
         <v>778</v>
       </c>
@@ -6637,7 +6637,7 @@
         <f t="shared" si="16"/>
         <v>uint32</v>
       </c>
-      <c r="L67" s="155">
+      <c r="L67" s="149">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>'power_supply_status': {'register': 30877, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Power supply status'},</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>30879</v>
       </c>
@@ -6668,9 +6668,9 @@
         <v>3</v>
       </c>
       <c r="G68" s="37"/>
-      <c r="I68" s="153"/>
-    </row>
-    <row r="69" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I68" s="147"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>30881</v>
       </c>
@@ -6688,9 +6688,9 @@
         <v>3</v>
       </c>
       <c r="G69" s="37"/>
-      <c r="I69" s="153"/>
-    </row>
-    <row r="70" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I69" s="147"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>30883</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="37"/>
-      <c r="I70" s="153"/>
+      <c r="I70" s="147"/>
       <c r="J70" s="1" t="s">
         <v>780</v>
       </c>
@@ -6716,7 +6716,7 @@
         <f>IF(C70="U32","uint32",IF(C70="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L70" s="155">
+      <c r="L70" s="149">
         <f>RIGHT(C70,2)/16</f>
         <v>2</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>'utility_grid_status': {'register': 30883, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Status of utility grid'},</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>30885</v>
       </c>
@@ -6749,9 +6749,9 @@
         <v>3</v>
       </c>
       <c r="G71" s="37"/>
-      <c r="I71" s="153"/>
-    </row>
-    <row r="72" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I71" s="147"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>30887</v>
       </c>
@@ -6771,9 +6771,9 @@
         <v>3</v>
       </c>
       <c r="G72" s="37"/>
-      <c r="I72" s="153"/>
-    </row>
-    <row r="73" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I72" s="147"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>30889</v>
       </c>
@@ -6793,9 +6793,9 @@
         <v>3</v>
       </c>
       <c r="G73" s="37"/>
-      <c r="I73" s="153"/>
-    </row>
-    <row r="74" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I73" s="147"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>30891</v>
       </c>
@@ -6815,9 +6815,9 @@
         <v>3</v>
       </c>
       <c r="G74" s="37"/>
-      <c r="I74" s="153"/>
-    </row>
-    <row r="75" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I74" s="147"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>30893</v>
       </c>
@@ -6837,9 +6837,9 @@
         <v>3</v>
       </c>
       <c r="G75" s="37"/>
-      <c r="I75" s="153"/>
-    </row>
-    <row r="76" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I75" s="147"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>30895</v>
       </c>
@@ -6859,9 +6859,9 @@
         <v>3</v>
       </c>
       <c r="G76" s="37"/>
-      <c r="I76" s="153"/>
-    </row>
-    <row r="77" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I76" s="147"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>30897</v>
       </c>
@@ -6881,9 +6881,9 @@
         <v>3</v>
       </c>
       <c r="G77" s="37"/>
-      <c r="I77" s="153"/>
-    </row>
-    <row r="78" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I77" s="147"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>30899</v>
       </c>
@@ -6903,9 +6903,9 @@
         <v>3</v>
       </c>
       <c r="G78" s="37"/>
-      <c r="I78" s="153"/>
-    </row>
-    <row r="79" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I78" s="147"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>30901</v>
       </c>
@@ -6925,9 +6925,9 @@
         <v>3</v>
       </c>
       <c r="G79" s="37"/>
-      <c r="I79" s="153"/>
-    </row>
-    <row r="80" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I79" s="147"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>30903</v>
       </c>
@@ -6947,9 +6947,9 @@
         <v>3</v>
       </c>
       <c r="G80" s="37"/>
-      <c r="I80" s="153"/>
-    </row>
-    <row r="81" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I80" s="147"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>30905</v>
       </c>
@@ -6969,9 +6969,9 @@
         <v>3</v>
       </c>
       <c r="G81" s="37"/>
-      <c r="I81" s="153"/>
-    </row>
-    <row r="82" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I81" s="147"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>30907</v>
       </c>
@@ -6991,9 +6991,9 @@
         <v>3</v>
       </c>
       <c r="G82" s="37"/>
-      <c r="I82" s="153"/>
-    </row>
-    <row r="83" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I82" s="147"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>30909</v>
       </c>
@@ -7013,9 +7013,9 @@
         <v>3</v>
       </c>
       <c r="G83" s="37"/>
-      <c r="I83" s="153"/>
-    </row>
-    <row r="84" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I83" s="147"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>30911</v>
       </c>
@@ -7035,9 +7035,9 @@
         <v>3</v>
       </c>
       <c r="G84" s="37"/>
-      <c r="I84" s="153"/>
-    </row>
-    <row r="85" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I84" s="147"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="38">
         <v>30913</v>
       </c>
@@ -7057,9 +7057,9 @@
         <v>3</v>
       </c>
       <c r="G85" s="40"/>
-      <c r="I85" s="154"/>
-    </row>
-    <row r="86" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I85" s="148"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="38">
         <v>30915</v>
       </c>
@@ -7077,9 +7077,9 @@
         <v>3</v>
       </c>
       <c r="G86" s="40"/>
-      <c r="I86" s="154"/>
-    </row>
-    <row r="87" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I86" s="148"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="38">
         <v>30917</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>3</v>
       </c>
       <c r="G87" s="40"/>
-      <c r="I87" s="154"/>
+      <c r="I87" s="148"/>
       <c r="J87" s="1" t="s">
         <v>779</v>
       </c>
@@ -7105,7 +7105,7 @@
         <f>IF(C87="U32","uint32",IF(C87="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L87" s="155">
+      <c r="L87" s="149">
         <f>RIGHT(C87,2)/16</f>
         <v>2</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>'gen_status': {'register': 30917, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Generator status'},</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>30925</v>
       </c>
@@ -7136,9 +7136,9 @@
         <v>3</v>
       </c>
       <c r="G88" s="37"/>
-      <c r="I88" s="153"/>
-    </row>
-    <row r="89" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I88" s="147"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>30927</v>
       </c>
@@ -7156,9 +7156,9 @@
         <v>3</v>
       </c>
       <c r="G89" s="37"/>
-      <c r="I89" s="153"/>
-    </row>
-    <row r="90" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I89" s="147"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>30929</v>
       </c>
@@ -7176,9 +7176,9 @@
         <v>3</v>
       </c>
       <c r="G90" s="37"/>
-      <c r="I90" s="153"/>
-    </row>
-    <row r="91" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I90" s="147"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>30977</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>3</v>
       </c>
       <c r="G91" s="37"/>
-      <c r="I91" s="153"/>
+      <c r="I91" s="147"/>
       <c r="J91" s="1" t="s">
         <v>761</v>
       </c>
@@ -7206,7 +7206,7 @@
         <f t="shared" ref="K91:K93" si="20">IF(C91="U32","uint32",IF(C91="S32","int32",""))</f>
         <v>int32</v>
       </c>
-      <c r="L91" s="155">
+      <c r="L91" s="149">
         <f t="shared" ref="L91:L93" si="21">RIGHT(C91,2)/16</f>
         <v>2</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>'I1': {'register': 30977, 'words': 2, 'datatype': 'int32', 'multiplier': 0.001, 'unit': 'A', 'description': 'Grid current phase L1'},</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>30979</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>3</v>
       </c>
       <c r="G92" s="37"/>
-      <c r="I92" s="153"/>
+      <c r="I92" s="147"/>
       <c r="J92" s="1" t="s">
         <v>762</v>
       </c>
@@ -7247,7 +7247,7 @@
         <f t="shared" si="20"/>
         <v>int32</v>
       </c>
-      <c r="L92" s="155">
+      <c r="L92" s="149">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>'I2': {'register': 30979, 'words': 2, 'datatype': 'int32', 'multiplier': 0.001, 'unit': 'A', 'description': 'Grid current phase L2'},</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>30981</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>3</v>
       </c>
       <c r="G93" s="37"/>
-      <c r="I93" s="153"/>
+      <c r="I93" s="147"/>
       <c r="J93" s="1" t="s">
         <v>763</v>
       </c>
@@ -7288,7 +7288,7 @@
         <f t="shared" si="20"/>
         <v>int32</v>
       </c>
-      <c r="L93" s="155">
+      <c r="L93" s="149">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>'I3': {'register': 30981, 'words': 2, 'datatype': 'int32', 'multiplier': 0.001, 'unit': 'A', 'description': 'Grid current phase L3'},</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>30983</v>
       </c>
@@ -7321,9 +7321,9 @@
         <v>3</v>
       </c>
       <c r="G94" s="37"/>
-      <c r="I94" s="153"/>
-    </row>
-    <row r="95" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I94" s="147"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>30985</v>
       </c>
@@ -7343,9 +7343,9 @@
         <v>3</v>
       </c>
       <c r="G95" s="37"/>
-      <c r="I95" s="153"/>
-    </row>
-    <row r="96" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I95" s="147"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>30987</v>
       </c>
@@ -7365,9 +7365,9 @@
         <v>3</v>
       </c>
       <c r="G96" s="37"/>
-      <c r="I96" s="153"/>
-    </row>
-    <row r="97" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I96" s="147"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>30989</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>3</v>
       </c>
       <c r="G97" s="37"/>
-      <c r="I97" s="153"/>
+      <c r="I97" s="147"/>
       <c r="J97" s="1" t="s">
         <v>781</v>
       </c>
@@ -7395,7 +7395,7 @@
         <f t="shared" ref="K97:K99" si="24">IF(C97="U32","uint32",IF(C97="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L97" s="155">
+      <c r="L97" s="149">
         <f t="shared" ref="L97:L99" si="25">RIGHT(C97,2)/16</f>
         <v>2</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>'I_max_charge': {'register': 30989, 'words': 2, 'datatype': 'uint32', 'multiplier': 0.001, 'unit': 'A', 'description': 'Maximum battery current in charge direction'},</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>30991</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>3</v>
       </c>
       <c r="G98" s="37"/>
-      <c r="I98" s="153"/>
+      <c r="I98" s="147"/>
       <c r="J98" s="1" t="s">
         <v>782</v>
       </c>
@@ -7436,7 +7436,7 @@
         <f t="shared" si="24"/>
         <v>uint32</v>
       </c>
-      <c r="L98" s="155">
+      <c r="L98" s="149">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>'I_max_discharge': {'register': 30991, 'words': 2, 'datatype': 'uint32', 'multiplier': 0.001, 'unit': 'A', 'description': 'Maximum battery current in discharge direction'},</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>30993</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>3</v>
       </c>
       <c r="G99" s="37"/>
-      <c r="I99" s="153"/>
+      <c r="I99" s="147"/>
       <c r="J99" s="1" t="s">
         <v>783</v>
       </c>
@@ -7475,7 +7475,7 @@
         <f t="shared" si="24"/>
         <v>uint32</v>
       </c>
-      <c r="L99" s="155">
+      <c r="L99" s="149">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>'charge_factor': {'register': 30993, 'words': 2, 'datatype': 'uint32', 'multiplier': 0.001, 'unit': null, 'description': 'Charge factor: ratio of battery charge/discharge'},</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>30995</v>
       </c>
@@ -7510,9 +7510,9 @@
       <c r="G100" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="I100" s="153"/>
-    </row>
-    <row r="101" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I100" s="147"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>30997</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="G101" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="I101" s="153"/>
+      <c r="I101" s="147"/>
       <c r="J101" s="1" t="s">
         <v>784</v>
       </c>
@@ -7542,7 +7542,7 @@
         <f t="shared" ref="K101:K106" si="28">IF(C101="U32","uint32",IF(C101="S32","int32",""))</f>
         <v>int32</v>
       </c>
-      <c r="L101" s="155">
+      <c r="L101" s="149">
         <f t="shared" ref="L101:L106" si="29">RIGHT(C101,2)/16</f>
         <v>2</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>'batt_temp_min': {'register': 30997, 'words': 2, 'datatype': 'int32', 'multiplier': 0.1, 'unit': '°C', 'description': 'Lowest measured battery temperature'},</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>30999</v>
       </c>
@@ -7577,7 +7577,7 @@
       <c r="G102" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="I102" s="153"/>
+      <c r="I102" s="147"/>
       <c r="J102" s="1" t="s">
         <v>785</v>
       </c>
@@ -7585,7 +7585,7 @@
         <f t="shared" si="28"/>
         <v>int32</v>
       </c>
-      <c r="L102" s="155">
+      <c r="L102" s="149">
         <f t="shared" si="29"/>
         <v>2</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>'batt_temp_max': {'register': 30999, 'words': 2, 'datatype': 'int32', 'multiplier': 0.01, 'unit': '°C', 'description': 'Highest measured battery temperature'},</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>31001</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>3</v>
       </c>
       <c r="G103" s="37"/>
-      <c r="I103" s="153"/>
+      <c r="I103" s="147"/>
       <c r="J103" s="1" t="s">
         <v>787</v>
       </c>
@@ -7626,7 +7626,7 @@
         <f t="shared" si="28"/>
         <v>uint32</v>
       </c>
-      <c r="L103" s="155">
+      <c r="L103" s="149">
         <f t="shared" si="29"/>
         <v>2</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>'V_batt_max': {'register': 31001, 'words': 2, 'datatype': 'uint32', 'multiplier': 0.01, 'unit': 'V', 'description': 'Max. occurred battery voltage'},</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>31003</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="G104" s="37">
         <v>1</v>
       </c>
-      <c r="I104" s="153"/>
+      <c r="I104" s="147"/>
       <c r="J104" s="1" t="s">
         <v>791</v>
       </c>
@@ -7669,7 +7669,7 @@
         <f t="shared" si="28"/>
         <v>uint32</v>
       </c>
-      <c r="L104" s="155">
+      <c r="L104" s="149">
         <f t="shared" si="29"/>
         <v>2</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>'t_rem_fullchg': {'register': 31003, 'words': 2, 'datatype': 'uint32', 'multiplier': 1, 'unit': 's', 'description': 'Remaining time until full charge'},</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>31005</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="G105" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="I105" s="153"/>
+      <c r="I105" s="147"/>
       <c r="J105" s="1" t="s">
         <v>792</v>
       </c>
@@ -7712,7 +7712,7 @@
         <f t="shared" si="28"/>
         <v>uint32</v>
       </c>
-      <c r="L105" s="155">
+      <c r="L105" s="149">
         <f t="shared" si="29"/>
         <v>2</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>'t_rem_equalization': {'register': 31005, 'words': 2, 'datatype': 'uint32', 'multiplier': 0.1, 'unit': 's', 'description': 'Remaining time until equalization charge'},</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>31007</v>
       </c>
@@ -7747,7 +7747,7 @@
       <c r="G106" s="37">
         <v>1</v>
       </c>
-      <c r="I106" s="153"/>
+      <c r="I106" s="147"/>
       <c r="J106" s="1" t="s">
         <v>790</v>
       </c>
@@ -7755,7 +7755,7 @@
         <f t="shared" si="28"/>
         <v>uint32</v>
       </c>
-      <c r="L106" s="155">
+      <c r="L106" s="149">
         <f t="shared" si="29"/>
         <v>2</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>'t_rem_absorption': {'register': 31007, 'words': 2, 'datatype': 'uint32', 'multiplier': 1, 'unit': 's', 'description': 'Remaining absorption time'},</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>31009</v>
       </c>
@@ -7788,9 +7788,9 @@
         <v>3</v>
       </c>
       <c r="G107" s="37"/>
-      <c r="I107" s="153"/>
-    </row>
-    <row r="108" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I107" s="147"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>31011</v>
       </c>
@@ -7810,9 +7810,9 @@
         <v>3</v>
       </c>
       <c r="G108" s="37"/>
-      <c r="I108" s="153"/>
-    </row>
-    <row r="109" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I108" s="147"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>31013</v>
       </c>
@@ -7834,9 +7834,9 @@
       <c r="G109" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="I109" s="153"/>
-    </row>
-    <row r="110" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I109" s="147"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>31015</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>3</v>
       </c>
       <c r="G110" s="37"/>
-      <c r="I110" s="153"/>
+      <c r="I110" s="147"/>
       <c r="J110" s="1" t="s">
         <v>793</v>
       </c>
@@ -7862,7 +7862,7 @@
         <f>IF(C110="U32","uint32",IF(C110="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L110" s="155">
+      <c r="L110" s="149">
         <f>RIGHT(C110,2)/16</f>
         <v>2</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>'status_L1': {'register': 31015, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Operating status Master (Phase L1)'},</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>31017</v>
       </c>
@@ -7893,9 +7893,9 @@
         <v>3</v>
       </c>
       <c r="G111" s="37"/>
-      <c r="I111" s="153"/>
-    </row>
-    <row r="112" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I111" s="147"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112" s="38">
         <v>31025</v>
       </c>
@@ -7913,9 +7913,9 @@
         <v>3</v>
       </c>
       <c r="G112" s="40"/>
-      <c r="I112" s="154"/>
-    </row>
-    <row r="113" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I112" s="148"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>31033</v>
       </c>
@@ -7933,9 +7933,9 @@
         <v>3</v>
       </c>
       <c r="G113" s="37"/>
-      <c r="I113" s="153"/>
-    </row>
-    <row r="114" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I113" s="147"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>31041</v>
       </c>
@@ -7953,9 +7953,9 @@
         <v>3</v>
       </c>
       <c r="G114" s="37"/>
-      <c r="I114" s="153"/>
-    </row>
-    <row r="115" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="I114" s="147"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>31053</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>3</v>
       </c>
       <c r="G115" s="37"/>
-      <c r="I115" s="153"/>
+      <c r="I115" s="147"/>
       <c r="J115" s="1" t="s">
         <v>794</v>
       </c>
@@ -7981,7 +7981,7 @@
         <f t="shared" ref="K115:K116" si="32">IF(C115="U32","uint32",IF(C115="S32","int32",""))</f>
         <v>uint32</v>
       </c>
-      <c r="L115" s="155">
+      <c r="L115" s="149">
         <f t="shared" ref="L115:L116" si="33">RIGHT(C115,2)/16</f>
         <v>2</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>'status_L2': {'register': 31053, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Operating status Slave1 (Phase L2)'},</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>31055</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>3</v>
       </c>
       <c r="G116" s="37"/>
-      <c r="I116" s="153"/>
+      <c r="I116" s="147"/>
       <c r="J116" s="1" t="s">
         <v>795</v>
       </c>
@@ -8020,7 +8020,7 @@
         <f t="shared" si="32"/>
         <v>uint32</v>
       </c>
-      <c r="L116" s="155">
+      <c r="L116" s="149">
         <f t="shared" si="33"/>
         <v>2</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>'status_L3': {'register': 31055, 'words': 2, 'datatype': 'uint32', 'multiplier': null, 'unit': null, 'description': 'Operating status Slave2 (Phase L3)'},</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>31057</v>
       </c>
@@ -8051,9 +8051,9 @@
         <v>3</v>
       </c>
       <c r="G117" s="37"/>
-      <c r="I117" s="153"/>
-    </row>
-    <row r="118" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I117" s="147"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>31059</v>
       </c>
@@ -8071,9 +8071,9 @@
         <v>3</v>
       </c>
       <c r="G118" s="37"/>
-      <c r="I118" s="153"/>
-    </row>
-    <row r="119" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I118" s="147"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>31061</v>
       </c>
@@ -8091,9 +8091,9 @@
         <v>3</v>
       </c>
       <c r="G119" s="37"/>
-      <c r="I119" s="153"/>
-    </row>
-    <row r="120" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I119" s="147"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>31063</v>
       </c>
@@ -8113,9 +8113,9 @@
         <v>3</v>
       </c>
       <c r="G120" s="37"/>
-      <c r="I120" s="153"/>
-    </row>
-    <row r="121" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I120" s="147"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121" s="41">
         <v>31065</v>
       </c>
@@ -8135,9 +8135,9 @@
         <v>3</v>
       </c>
       <c r="G121" s="40"/>
-      <c r="I121" s="154"/>
-    </row>
-    <row r="122" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I121" s="148"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <v>31067</v>
       </c>
@@ -8157,9 +8157,9 @@
         <v>3</v>
       </c>
       <c r="G122" s="37"/>
-      <c r="I122" s="153"/>
-    </row>
-    <row r="123" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I122" s="147"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>31069</v>
       </c>
@@ -8177,9 +8177,9 @@
         <v>3</v>
       </c>
       <c r="G123" s="37"/>
-      <c r="I123" s="153"/>
-    </row>
-    <row r="124" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I123" s="147"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>31071</v>
       </c>
@@ -8199,9 +8199,9 @@
         <v>3</v>
       </c>
       <c r="G124" s="37"/>
-      <c r="I124" s="153"/>
-    </row>
-    <row r="125" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I124" s="147"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>31073</v>
       </c>
@@ -8221,9 +8221,9 @@
         <v>3</v>
       </c>
       <c r="G125" s="37"/>
-      <c r="I125" s="153"/>
-    </row>
-    <row r="126" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I125" s="147"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>31075</v>
       </c>
@@ -8245,9 +8245,9 @@
       <c r="G126" s="37">
         <v>1</v>
       </c>
-      <c r="I126" s="153"/>
-    </row>
-    <row r="127" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I126" s="147"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>31077</v>
       </c>
@@ -8267,9 +8267,9 @@
         <v>3</v>
       </c>
       <c r="G127" s="37"/>
-      <c r="I127" s="153"/>
-    </row>
-    <row r="128" spans="1:14" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I127" s="147"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>34657</v>
       </c>
@@ -8287,9 +8287,9 @@
         <v>3</v>
       </c>
       <c r="G128" s="37"/>
-      <c r="I128" s="153"/>
-    </row>
-    <row r="129" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I128" s="147"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>35377</v>
       </c>
@@ -8307,9 +8307,9 @@
         <v>3</v>
       </c>
       <c r="G129" s="37"/>
-      <c r="I129" s="153"/>
-    </row>
-    <row r="130" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I129" s="147"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>35381</v>
       </c>
@@ -8327,9 +8327,9 @@
         <v>3</v>
       </c>
       <c r="G130" s="37"/>
-      <c r="I130" s="153"/>
-    </row>
-    <row r="131" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I130" s="147"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>35385</v>
       </c>
@@ -8347,9 +8347,9 @@
         <v>3</v>
       </c>
       <c r="G131" s="37"/>
-      <c r="I131" s="153"/>
-    </row>
-    <row r="132" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I131" s="147"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>40031</v>
       </c>
@@ -8369,9 +8369,9 @@
         <v>3</v>
       </c>
       <c r="G132" s="37"/>
-      <c r="I132" s="153"/>
-    </row>
-    <row r="133" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I132" s="147"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>40033</v>
       </c>
@@ -8393,9 +8393,9 @@
       <c r="G133" s="37">
         <v>1</v>
       </c>
-      <c r="I133" s="153"/>
-    </row>
-    <row r="134" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I133" s="147"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134" s="4">
         <v>40035</v>
       </c>
@@ -8413,9 +8413,9 @@
         <v>3</v>
       </c>
       <c r="G134" s="37"/>
-      <c r="I134" s="153"/>
-    </row>
-    <row r="135" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I134" s="147"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135" s="4">
         <v>40037</v>
       </c>
@@ -8435,9 +8435,9 @@
         <v>3</v>
       </c>
       <c r="G135" s="37"/>
-      <c r="I135" s="153"/>
-    </row>
-    <row r="136" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I135" s="147"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>40039</v>
       </c>
@@ -8459,9 +8459,9 @@
       <c r="G136" s="37">
         <v>1</v>
       </c>
-      <c r="I136" s="153"/>
-    </row>
-    <row r="137" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I136" s="147"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137" s="4">
         <v>40041</v>
       </c>
@@ -8483,9 +8483,9 @@
       <c r="G137" s="37">
         <v>1</v>
       </c>
-      <c r="I137" s="153"/>
-    </row>
-    <row r="138" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I137" s="147"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
         <v>40043</v>
       </c>
@@ -8507,9 +8507,9 @@
       <c r="G138" s="37">
         <v>1</v>
       </c>
-      <c r="I138" s="153"/>
-    </row>
-    <row r="139" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I138" s="147"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139" s="4">
         <v>40045</v>
       </c>
@@ -8529,9 +8529,9 @@
         <v>26</v>
       </c>
       <c r="G139" s="37"/>
-      <c r="I139" s="153"/>
-    </row>
-    <row r="140" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I139" s="147"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140" s="4">
         <v>40047</v>
       </c>
@@ -8551,9 +8551,9 @@
         <v>26</v>
       </c>
       <c r="G140" s="37"/>
-      <c r="I140" s="153"/>
-    </row>
-    <row r="141" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I140" s="147"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
         <v>40049</v>
       </c>
@@ -8571,9 +8571,9 @@
         <v>26</v>
       </c>
       <c r="G141" s="37"/>
-      <c r="I141" s="153"/>
-    </row>
-    <row r="142" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I141" s="147"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142" s="4">
         <v>40055</v>
       </c>
@@ -8591,9 +8591,9 @@
         <v>26</v>
       </c>
       <c r="G142" s="37"/>
-      <c r="I142" s="153"/>
-    </row>
-    <row r="143" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I142" s="147"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
         <v>40057</v>
       </c>
@@ -8611,9 +8611,9 @@
         <v>26</v>
       </c>
       <c r="G143" s="37"/>
-      <c r="I143" s="153"/>
-    </row>
-    <row r="144" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I143" s="147"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
         <v>40059</v>
       </c>
@@ -8633,9 +8633,9 @@
         <v>26</v>
       </c>
       <c r="G144" s="37"/>
-      <c r="I144" s="153"/>
-    </row>
-    <row r="145" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I144" s="147"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" s="38">
         <v>40061</v>
       </c>
@@ -8655,9 +8655,9 @@
         <v>26</v>
       </c>
       <c r="G145" s="40"/>
-      <c r="I145" s="154"/>
-    </row>
-    <row r="146" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I145" s="148"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
         <v>40063</v>
       </c>
@@ -8675,9 +8675,9 @@
         <v>3</v>
       </c>
       <c r="G146" s="37"/>
-      <c r="I146" s="153"/>
-    </row>
-    <row r="147" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I146" s="147"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" s="4">
         <v>40065</v>
       </c>
@@ -8695,9 +8695,9 @@
         <v>3</v>
       </c>
       <c r="G147" s="37"/>
-      <c r="I147" s="153"/>
-    </row>
-    <row r="148" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I147" s="147"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" s="4">
         <v>40067</v>
       </c>
@@ -8715,9 +8715,9 @@
         <v>3</v>
       </c>
       <c r="G148" s="37"/>
-      <c r="I148" s="153"/>
-    </row>
-    <row r="149" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I148" s="147"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" s="4">
         <v>40071</v>
       </c>
@@ -8735,9 +8735,9 @@
         <v>26</v>
       </c>
       <c r="G149" s="37"/>
-      <c r="I149" s="153"/>
-    </row>
-    <row r="150" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I149" s="147"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" s="4">
         <v>40075</v>
       </c>
@@ -8755,9 +8755,9 @@
         <v>26</v>
       </c>
       <c r="G150" s="37"/>
-      <c r="I150" s="153"/>
-    </row>
-    <row r="151" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I150" s="147"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" s="4">
         <v>40077</v>
       </c>
@@ -8775,9 +8775,9 @@
         <v>26</v>
       </c>
       <c r="G151" s="37"/>
-      <c r="I151" s="153"/>
-    </row>
-    <row r="152" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I151" s="147"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" s="4">
         <v>40085</v>
       </c>
@@ -8797,9 +8797,9 @@
         <v>26</v>
       </c>
       <c r="G152" s="37"/>
-      <c r="I152" s="153"/>
-    </row>
-    <row r="153" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I152" s="147"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" s="4">
         <v>40087</v>
       </c>
@@ -8819,9 +8819,9 @@
         <v>26</v>
       </c>
       <c r="G153" s="37"/>
-      <c r="I153" s="153"/>
-    </row>
-    <row r="154" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I153" s="147"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" s="4">
         <v>40089</v>
       </c>
@@ -8841,9 +8841,9 @@
         <v>26</v>
       </c>
       <c r="G154" s="37"/>
-      <c r="I154" s="153"/>
-    </row>
-    <row r="155" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I154" s="147"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" s="4">
         <v>40091</v>
       </c>
@@ -8863,9 +8863,9 @@
         <v>26</v>
       </c>
       <c r="G155" s="37"/>
-      <c r="I155" s="153"/>
-    </row>
-    <row r="156" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I155" s="147"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" s="4">
         <v>40093</v>
       </c>
@@ -8885,9 +8885,9 @@
         <v>26</v>
       </c>
       <c r="G156" s="37"/>
-      <c r="I156" s="153"/>
-    </row>
-    <row r="157" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I156" s="147"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" s="4">
         <v>40095</v>
       </c>
@@ -8907,9 +8907,9 @@
         <v>26</v>
       </c>
       <c r="G157" s="37"/>
-      <c r="I157" s="153"/>
-    </row>
-    <row r="158" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I157" s="147"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" s="4">
         <v>40097</v>
       </c>
@@ -8929,9 +8929,9 @@
         <v>26</v>
       </c>
       <c r="G158" s="37"/>
-      <c r="I158" s="153"/>
-    </row>
-    <row r="159" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I158" s="147"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" s="4">
         <v>40099</v>
       </c>
@@ -8951,9 +8951,9 @@
         <v>26</v>
       </c>
       <c r="G159" s="37"/>
-      <c r="I159" s="153"/>
-    </row>
-    <row r="160" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I159" s="147"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" s="4">
         <v>40101</v>
       </c>
@@ -8973,9 +8973,9 @@
         <v>26</v>
       </c>
       <c r="G160" s="37"/>
-      <c r="I160" s="153"/>
-    </row>
-    <row r="161" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I160" s="147"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" s="4">
         <v>40103</v>
       </c>
@@ -8995,9 +8995,9 @@
         <v>26</v>
       </c>
       <c r="G161" s="37"/>
-      <c r="I161" s="153"/>
-    </row>
-    <row r="162" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I161" s="147"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162" s="4">
         <v>40105</v>
       </c>
@@ -9017,9 +9017,9 @@
         <v>26</v>
       </c>
       <c r="G162" s="37"/>
-      <c r="I162" s="153"/>
-    </row>
-    <row r="163" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I162" s="147"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
         <v>40107</v>
       </c>
@@ -9039,9 +9039,9 @@
         <v>26</v>
       </c>
       <c r="G163" s="37"/>
-      <c r="I163" s="153"/>
-    </row>
-    <row r="164" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I163" s="147"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
         <v>40111</v>
       </c>
@@ -9061,9 +9061,9 @@
         <v>26</v>
       </c>
       <c r="G164" s="37"/>
-      <c r="I164" s="153"/>
-    </row>
-    <row r="165" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I164" s="147"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165" s="4">
         <v>40113</v>
       </c>
@@ -9083,9 +9083,9 @@
         <v>26</v>
       </c>
       <c r="G165" s="37"/>
-      <c r="I165" s="153"/>
-    </row>
-    <row r="166" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I165" s="147"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166" s="4">
         <v>40119</v>
       </c>
@@ -9105,9 +9105,9 @@
         <v>26</v>
       </c>
       <c r="G166" s="37"/>
-      <c r="I166" s="153"/>
-    </row>
-    <row r="167" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I166" s="147"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A167" s="4">
         <v>40121</v>
       </c>
@@ -9127,9 +9127,9 @@
         <v>26</v>
       </c>
       <c r="G167" s="37"/>
-      <c r="I167" s="153"/>
-    </row>
-    <row r="168" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I167" s="147"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168" s="4">
         <v>40127</v>
       </c>
@@ -9149,9 +9149,9 @@
         <v>26</v>
       </c>
       <c r="G168" s="37"/>
-      <c r="I168" s="153"/>
-    </row>
-    <row r="169" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I168" s="147"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169" s="4">
         <v>40129</v>
       </c>
@@ -9173,9 +9173,9 @@
       <c r="G169" s="37">
         <v>1</v>
       </c>
-      <c r="I169" s="153"/>
-    </row>
-    <row r="170" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I169" s="147"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A170" s="4">
         <v>40135</v>
       </c>
@@ -9195,9 +9195,9 @@
         <v>26</v>
       </c>
       <c r="G170" s="37"/>
-      <c r="I170" s="153"/>
-    </row>
-    <row r="171" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I170" s="147"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171" s="4">
         <v>40137</v>
       </c>
@@ -9215,9 +9215,9 @@
         <v>26</v>
       </c>
       <c r="G171" s="37"/>
-      <c r="I171" s="153"/>
-    </row>
-    <row r="172" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I171" s="147"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172" s="4">
         <v>40149</v>
       </c>
@@ -9237,9 +9237,9 @@
         <v>495</v>
       </c>
       <c r="G172" s="37"/>
-      <c r="I172" s="153"/>
-    </row>
-    <row r="173" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I172" s="147"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A173" s="4">
         <v>40151</v>
       </c>
@@ -9257,9 +9257,9 @@
         <v>495</v>
       </c>
       <c r="G173" s="37"/>
-      <c r="I173" s="153"/>
-    </row>
-    <row r="174" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I173" s="147"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A174" s="4">
         <v>40153</v>
       </c>
@@ -9279,9 +9279,9 @@
         <v>495</v>
       </c>
       <c r="G174" s="37"/>
-      <c r="I174" s="153"/>
-    </row>
-    <row r="175" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I174" s="147"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A175" s="4">
         <v>40155</v>
       </c>
@@ -9299,9 +9299,9 @@
         <v>3</v>
       </c>
       <c r="G175" s="37"/>
-      <c r="I175" s="153"/>
-    </row>
-    <row r="176" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I175" s="147"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A176" s="4">
         <v>40157</v>
       </c>
@@ -9319,9 +9319,9 @@
         <v>26</v>
       </c>
       <c r="G176" s="37"/>
-      <c r="I176" s="153"/>
-    </row>
-    <row r="177" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I176" s="147"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A177" s="4">
         <v>40159</v>
       </c>
@@ -9339,9 +9339,9 @@
         <v>26</v>
       </c>
       <c r="G177" s="37"/>
-      <c r="I177" s="153"/>
-    </row>
-    <row r="178" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I177" s="147"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178" s="4">
         <v>40167</v>
       </c>
@@ -9359,9 +9359,9 @@
         <v>26</v>
       </c>
       <c r="G178" s="37"/>
-      <c r="I178" s="153"/>
-    </row>
-    <row r="179" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I178" s="147"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A179" s="4">
         <v>40175</v>
       </c>
@@ -9379,9 +9379,9 @@
         <v>26</v>
       </c>
       <c r="G179" s="37"/>
-      <c r="I179" s="153"/>
-    </row>
-    <row r="180" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I179" s="147"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180" s="4">
         <v>40187</v>
       </c>
@@ -9401,9 +9401,9 @@
         <v>3</v>
       </c>
       <c r="G180" s="37"/>
-      <c r="I180" s="153"/>
-    </row>
-    <row r="181" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I180" s="147"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181" s="4">
         <v>40189</v>
       </c>
@@ -9423,9 +9423,9 @@
         <v>3</v>
       </c>
       <c r="G181" s="37"/>
-      <c r="I181" s="153"/>
-    </row>
-    <row r="182" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I181" s="147"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182" s="4">
         <v>40191</v>
       </c>
@@ -9445,9 +9445,9 @@
         <v>3</v>
       </c>
       <c r="G182" s="37"/>
-      <c r="I182" s="153"/>
-    </row>
-    <row r="183" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I182" s="147"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183" s="4">
         <v>40200</v>
       </c>
@@ -9465,9 +9465,9 @@
         <v>26</v>
       </c>
       <c r="G183" s="37"/>
-      <c r="I183" s="153"/>
-    </row>
-    <row r="184" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I183" s="147"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A184" s="4">
         <v>40206</v>
       </c>
@@ -9485,9 +9485,9 @@
         <v>26</v>
       </c>
       <c r="G184" s="37"/>
-      <c r="I184" s="153"/>
-    </row>
-    <row r="185" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I184" s="147"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A185" s="4">
         <v>40208</v>
       </c>
@@ -9505,9 +9505,9 @@
         <v>26</v>
       </c>
       <c r="G185" s="37"/>
-      <c r="I185" s="153"/>
-    </row>
-    <row r="186" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I185" s="147"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A186" s="4">
         <v>40210</v>
       </c>
@@ -9525,9 +9525,9 @@
         <v>26</v>
       </c>
       <c r="G186" s="37"/>
-      <c r="I186" s="153"/>
-    </row>
-    <row r="187" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I186" s="147"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" s="4">
         <v>40216</v>
       </c>
@@ -9545,9 +9545,9 @@
         <v>26</v>
       </c>
       <c r="G187" s="37"/>
-      <c r="I187" s="153"/>
-    </row>
-    <row r="188" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I187" s="147"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188" s="4">
         <v>40218</v>
       </c>
@@ -9567,9 +9567,9 @@
         <v>26</v>
       </c>
       <c r="G188" s="37"/>
-      <c r="I188" s="153"/>
-    </row>
-    <row r="189" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I188" s="147"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189" s="4">
         <v>40220</v>
       </c>
@@ -9589,9 +9589,9 @@
         <v>26</v>
       </c>
       <c r="G189" s="37"/>
-      <c r="I189" s="153"/>
-    </row>
-    <row r="190" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I189" s="147"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190" s="4">
         <v>40222</v>
       </c>
@@ -9609,9 +9609,9 @@
         <v>26</v>
       </c>
       <c r="G190" s="37"/>
-      <c r="I190" s="153"/>
-    </row>
-    <row r="191" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I190" s="147"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191" s="4">
         <v>40224</v>
       </c>
@@ -9629,9 +9629,9 @@
         <v>26</v>
       </c>
       <c r="G191" s="37"/>
-      <c r="I191" s="153"/>
-    </row>
-    <row r="192" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I191" s="147"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192" s="4">
         <v>40226</v>
       </c>
@@ -9649,9 +9649,9 @@
         <v>26</v>
       </c>
       <c r="G192" s="37"/>
-      <c r="I192" s="153"/>
-    </row>
-    <row r="193" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I192" s="147"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A193" s="38">
         <v>40228</v>
       </c>
@@ -9669,9 +9669,9 @@
         <v>26</v>
       </c>
       <c r="G193" s="40"/>
-      <c r="I193" s="154"/>
-    </row>
-    <row r="194" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I193" s="148"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194" s="38">
         <v>40230</v>
       </c>
@@ -9691,9 +9691,9 @@
         <v>26</v>
       </c>
       <c r="G194" s="40"/>
-      <c r="I194" s="154"/>
-    </row>
-    <row r="195" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I194" s="148"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195" s="38">
         <v>40232</v>
       </c>
@@ -9713,9 +9713,9 @@
         <v>26</v>
       </c>
       <c r="G195" s="40"/>
-      <c r="I195" s="154"/>
-    </row>
-    <row r="196" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I195" s="148"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196" s="38">
         <v>40236</v>
       </c>
@@ -9733,9 +9733,9 @@
         <v>495</v>
       </c>
       <c r="G196" s="40"/>
-      <c r="I196" s="154"/>
-    </row>
-    <row r="197" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I196" s="148"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A197" s="4">
         <v>40238</v>
       </c>
@@ -9755,9 +9755,9 @@
         <v>26</v>
       </c>
       <c r="G197" s="37"/>
-      <c r="I197" s="153"/>
-    </row>
-    <row r="198" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I197" s="147"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198" s="4">
         <v>40497</v>
       </c>
@@ -9775,9 +9775,9 @@
         <v>3</v>
       </c>
       <c r="G198" s="37"/>
-      <c r="I198" s="153"/>
-    </row>
-    <row r="199" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I198" s="147"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A199" s="4">
         <v>40513</v>
       </c>
@@ -9795,9 +9795,9 @@
         <v>26</v>
       </c>
       <c r="G199" s="37"/>
-      <c r="I199" s="153"/>
-    </row>
-    <row r="200" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I199" s="147"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200" s="4">
         <v>40521</v>
       </c>
@@ -9815,9 +9815,9 @@
         <v>26</v>
       </c>
       <c r="G200" s="37"/>
-      <c r="I200" s="153"/>
-    </row>
-    <row r="201" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I200" s="147"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201" s="4">
         <v>40523</v>
       </c>
@@ -9837,9 +9837,9 @@
         <v>26</v>
       </c>
       <c r="G201" s="37"/>
-      <c r="I201" s="153"/>
-    </row>
-    <row r="202" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I201" s="147"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202" s="4">
         <v>40525</v>
       </c>
@@ -9859,9 +9859,9 @@
         <v>26</v>
       </c>
       <c r="G202" s="37"/>
-      <c r="I202" s="153"/>
-    </row>
-    <row r="203" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I202" s="147"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A203" s="4">
         <v>40527</v>
       </c>
@@ -9879,9 +9879,9 @@
         <v>26</v>
       </c>
       <c r="G203" s="37"/>
-      <c r="I203" s="153"/>
-    </row>
-    <row r="204" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I203" s="147"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A204" s="4">
         <v>40529</v>
       </c>
@@ -9899,9 +9899,9 @@
         <v>26</v>
       </c>
       <c r="G204" s="37"/>
-      <c r="I204" s="153"/>
-    </row>
-    <row r="205" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I204" s="147"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A205" s="4">
         <v>40531</v>
       </c>
@@ -9919,9 +9919,9 @@
         <v>3</v>
       </c>
       <c r="G205" s="37"/>
-      <c r="I205" s="153"/>
-    </row>
-    <row r="206" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I205" s="147"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A206" s="4">
         <v>40533</v>
       </c>
@@ -9939,9 +9939,9 @@
         <v>26</v>
       </c>
       <c r="G206" s="37"/>
-      <c r="I206" s="153"/>
-    </row>
-    <row r="207" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I206" s="147"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A207" s="4">
         <v>40535</v>
       </c>
@@ -9959,9 +9959,9 @@
         <v>26</v>
       </c>
       <c r="G207" s="37"/>
-      <c r="I207" s="153"/>
-    </row>
-    <row r="208" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I207" s="147"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A208" s="4">
         <v>40537</v>
       </c>
@@ -9981,9 +9981,9 @@
         <v>26</v>
       </c>
       <c r="G208" s="37"/>
-      <c r="I208" s="153"/>
-    </row>
-    <row r="209" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I208" s="147"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A209" s="4">
         <v>40539</v>
       </c>
@@ -10003,9 +10003,9 @@
         <v>26</v>
       </c>
       <c r="G209" s="37"/>
-      <c r="I209" s="153"/>
-    </row>
-    <row r="210" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I209" s="147"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A210" s="4">
         <v>40541</v>
       </c>
@@ -10023,9 +10023,9 @@
         <v>26</v>
       </c>
       <c r="G210" s="37"/>
-      <c r="I210" s="153"/>
-    </row>
-    <row r="211" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I210" s="147"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A211" s="4">
         <v>40543</v>
       </c>
@@ -10043,9 +10043,9 @@
         <v>26</v>
       </c>
       <c r="G211" s="37"/>
-      <c r="I211" s="153"/>
-    </row>
-    <row r="212" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I211" s="147"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A212" s="4">
         <v>40545</v>
       </c>
@@ -10065,9 +10065,9 @@
         <v>26</v>
       </c>
       <c r="G212" s="37"/>
-      <c r="I212" s="153"/>
-    </row>
-    <row r="213" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I212" s="147"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A213" s="4">
         <v>40547</v>
       </c>
@@ -10087,9 +10087,9 @@
         <v>26</v>
       </c>
       <c r="G213" s="37"/>
-      <c r="I213" s="153"/>
-    </row>
-    <row r="214" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I213" s="147"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214" s="4">
         <v>40549</v>
       </c>
@@ -10107,9 +10107,9 @@
         <v>26</v>
       </c>
       <c r="G214" s="37"/>
-      <c r="I214" s="153"/>
-    </row>
-    <row r="215" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I214" s="147"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A215" s="4">
         <v>40551</v>
       </c>
@@ -10127,9 +10127,9 @@
         <v>26</v>
       </c>
       <c r="G215" s="37"/>
-      <c r="I215" s="153"/>
-    </row>
-    <row r="216" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I215" s="147"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A216" s="4">
         <v>40553</v>
       </c>
@@ -10151,9 +10151,9 @@
       <c r="G216" s="37">
         <v>1</v>
       </c>
-      <c r="I216" s="153"/>
-    </row>
-    <row r="217" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I216" s="147"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A217" s="4">
         <v>40555</v>
       </c>
@@ -10171,9 +10171,9 @@
         <v>26</v>
       </c>
       <c r="G217" s="37"/>
-      <c r="I217" s="153"/>
-    </row>
-    <row r="218" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I217" s="147"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A218" s="4">
         <v>40557</v>
       </c>
@@ -10191,9 +10191,9 @@
         <v>26</v>
       </c>
       <c r="G218" s="37"/>
-      <c r="I218" s="153"/>
-    </row>
-    <row r="219" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I218" s="147"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A219" s="4">
         <v>40559</v>
       </c>
@@ -10211,9 +10211,9 @@
         <v>26</v>
       </c>
       <c r="G219" s="37"/>
-      <c r="I219" s="153"/>
-    </row>
-    <row r="220" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I219" s="147"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A220" s="4">
         <v>40561</v>
       </c>
@@ -10235,9 +10235,9 @@
       <c r="G220" s="37">
         <v>1</v>
       </c>
-      <c r="I220" s="153"/>
-    </row>
-    <row r="221" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I220" s="147"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A221" s="4">
         <v>40563</v>
       </c>
@@ -10259,9 +10259,9 @@
       <c r="G221" s="37">
         <v>1</v>
       </c>
-      <c r="I221" s="153"/>
-    </row>
-    <row r="222" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I221" s="147"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A222" s="4">
         <v>40565</v>
       </c>
@@ -10283,9 +10283,9 @@
       <c r="G222" s="37">
         <v>1</v>
       </c>
-      <c r="I222" s="153"/>
-    </row>
-    <row r="223" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I222" s="147"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A223" s="4">
         <v>40567</v>
       </c>
@@ -10307,9 +10307,9 @@
       <c r="G223" s="37">
         <v>1</v>
       </c>
-      <c r="I223" s="153"/>
-    </row>
-    <row r="224" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I223" s="147"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A224" s="4">
         <v>40569</v>
       </c>
@@ -10331,9 +10331,9 @@
       <c r="G224" s="37">
         <v>1</v>
       </c>
-      <c r="I224" s="153"/>
-    </row>
-    <row r="225" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I224" s="147"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A225" s="4">
         <v>40571</v>
       </c>
@@ -10355,9 +10355,9 @@
       <c r="G225" s="37">
         <v>1</v>
       </c>
-      <c r="I225" s="153"/>
-    </row>
-    <row r="226" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I225" s="147"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A226" s="4">
         <v>40573</v>
       </c>
@@ -10377,9 +10377,9 @@
         <v>26</v>
       </c>
       <c r="G226" s="37"/>
-      <c r="I226" s="153"/>
-    </row>
-    <row r="227" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I226" s="147"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A227" s="4">
         <v>40575</v>
       </c>
@@ -10397,9 +10397,9 @@
         <v>26</v>
       </c>
       <c r="G227" s="37"/>
-      <c r="I227" s="153"/>
-    </row>
-    <row r="228" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I227" s="147"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A228" s="4">
         <v>40587</v>
       </c>
@@ -10417,9 +10417,9 @@
         <v>26</v>
       </c>
       <c r="G228" s="37"/>
-      <c r="I228" s="153"/>
-    </row>
-    <row r="229" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I228" s="147"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A229" s="4">
         <v>40599</v>
       </c>
@@ -10437,9 +10437,9 @@
         <v>26</v>
       </c>
       <c r="G229" s="37"/>
-      <c r="I229" s="153"/>
-    </row>
-    <row r="230" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I229" s="147"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A230" s="4">
         <v>40611</v>
       </c>
@@ -10457,9 +10457,9 @@
         <v>26</v>
       </c>
       <c r="G230" s="37"/>
-      <c r="I230" s="153"/>
-    </row>
-    <row r="231" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I230" s="147"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A231" s="4">
         <v>40615</v>
       </c>
@@ -10481,9 +10481,9 @@
       <c r="G231" s="37">
         <v>1</v>
       </c>
-      <c r="I231" s="153"/>
-    </row>
-    <row r="232" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I231" s="147"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A232" s="38">
         <v>40619</v>
       </c>
@@ -10501,9 +10501,9 @@
         <v>26</v>
       </c>
       <c r="G232" s="40"/>
-      <c r="I232" s="154"/>
-    </row>
-    <row r="233" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I232" s="148"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A233" s="4">
         <v>40623</v>
       </c>
@@ -10521,9 +10521,9 @@
         <v>26</v>
       </c>
       <c r="G233" s="37"/>
-      <c r="I233" s="153"/>
-    </row>
-    <row r="234" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I233" s="147"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A234" s="4">
         <v>40625</v>
       </c>
@@ -10541,9 +10541,9 @@
         <v>26</v>
       </c>
       <c r="G234" s="37"/>
-      <c r="I234" s="153"/>
-    </row>
-    <row r="235" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I234" s="147"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235" s="4">
         <v>40627</v>
       </c>
@@ -10565,9 +10565,9 @@
       <c r="G235" s="37">
         <v>1</v>
       </c>
-      <c r="I235" s="153"/>
-    </row>
-    <row r="236" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I235" s="147"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A236" s="4">
         <v>40629</v>
       </c>
@@ -10585,9 +10585,9 @@
         <v>26</v>
       </c>
       <c r="G236" s="37"/>
-      <c r="I236" s="153"/>
-    </row>
-    <row r="237" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I236" s="147"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A237" s="4">
         <v>40631</v>
       </c>
@@ -10605,9 +10605,9 @@
         <v>26</v>
       </c>
       <c r="G237" s="37"/>
-      <c r="I237" s="153"/>
-    </row>
-    <row r="238" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I237" s="147"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A238" s="4">
         <v>40647</v>
       </c>
@@ -10625,9 +10625,9 @@
         <v>26</v>
       </c>
       <c r="G238" s="37"/>
-      <c r="I238" s="153"/>
-    </row>
-    <row r="239" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I238" s="147"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A239" s="4">
         <v>40649</v>
       </c>
@@ -10645,9 +10645,9 @@
         <v>26</v>
       </c>
       <c r="G239" s="37"/>
-      <c r="I239" s="153"/>
-    </row>
-    <row r="240" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I239" s="147"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A240" s="4">
         <v>40651</v>
       </c>
@@ -10665,9 +10665,9 @@
         <v>26</v>
       </c>
       <c r="G240" s="37"/>
-      <c r="I240" s="153"/>
-    </row>
-    <row r="241" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I240" s="147"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" s="4">
         <v>40653</v>
       </c>
@@ -10685,9 +10685,9 @@
         <v>26</v>
       </c>
       <c r="G241" s="37"/>
-      <c r="I241" s="153"/>
-    </row>
-    <row r="242" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I241" s="147"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" s="4">
         <v>40657</v>
       </c>
@@ -10705,9 +10705,9 @@
         <v>26</v>
       </c>
       <c r="G242" s="37"/>
-      <c r="I242" s="153"/>
-    </row>
-    <row r="243" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I242" s="147"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" s="4">
         <v>40659</v>
       </c>
@@ -10725,9 +10725,9 @@
         <v>26</v>
       </c>
       <c r="G243" s="37"/>
-      <c r="I243" s="153"/>
-    </row>
-    <row r="244" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I243" s="147"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A244" s="4">
         <v>40663</v>
       </c>
@@ -10745,9 +10745,9 @@
         <v>3</v>
       </c>
       <c r="G244" s="37"/>
-      <c r="I244" s="153"/>
-    </row>
-    <row r="245" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I244" s="147"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A245" s="4">
         <v>40665</v>
       </c>
@@ -10765,9 +10765,9 @@
         <v>3</v>
       </c>
       <c r="G245" s="37"/>
-      <c r="I245" s="153"/>
-    </row>
-    <row r="246" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I245" s="147"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A246" s="4">
         <v>40667</v>
       </c>
@@ -10785,9 +10785,9 @@
         <v>3</v>
       </c>
       <c r="G246" s="37"/>
-      <c r="I246" s="153"/>
-    </row>
-    <row r="247" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I246" s="147"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247" s="4">
         <v>40669</v>
       </c>
@@ -10805,9 +10805,9 @@
         <v>26</v>
       </c>
       <c r="G247" s="37"/>
-      <c r="I247" s="153"/>
-    </row>
-    <row r="248" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I247" s="147"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248" s="4">
         <v>40671</v>
       </c>
@@ -10825,9 +10825,9 @@
         <v>26</v>
       </c>
       <c r="G248" s="37"/>
-      <c r="I248" s="153"/>
-    </row>
-    <row r="249" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I248" s="147"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A249" s="4">
         <v>40673</v>
       </c>
@@ -10849,9 +10849,9 @@
       <c r="G249" s="37">
         <v>1</v>
       </c>
-      <c r="I249" s="153"/>
-    </row>
-    <row r="250" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I249" s="147"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A250" s="4">
         <v>40675</v>
       </c>
@@ -10869,9 +10869,9 @@
         <v>26</v>
       </c>
       <c r="G250" s="37"/>
-      <c r="I250" s="153"/>
-    </row>
-    <row r="251" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I250" s="147"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A251" s="4">
         <v>40677</v>
       </c>
@@ -10891,9 +10891,9 @@
         <v>26</v>
       </c>
       <c r="G251" s="37"/>
-      <c r="I251" s="153"/>
-    </row>
-    <row r="252" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I251" s="147"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A252" s="4">
         <v>40679</v>
       </c>
@@ -10911,9 +10911,9 @@
         <v>26</v>
       </c>
       <c r="G252" s="37"/>
-      <c r="I252" s="153"/>
-    </row>
-    <row r="253" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I252" s="147"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A253" s="4">
         <v>40681</v>
       </c>
@@ -10931,9 +10931,9 @@
         <v>26</v>
       </c>
       <c r="G253" s="37"/>
-      <c r="I253" s="153"/>
-    </row>
-    <row r="254" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I253" s="147"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A254" s="4">
         <v>40683</v>
       </c>
@@ -10953,9 +10953,9 @@
         <v>26</v>
       </c>
       <c r="G254" s="37"/>
-      <c r="I254" s="153"/>
-    </row>
-    <row r="255" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I254" s="147"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A255" s="4">
         <v>40685</v>
       </c>
@@ -10975,9 +10975,9 @@
         <v>26</v>
       </c>
       <c r="G255" s="37"/>
-      <c r="I255" s="153"/>
-    </row>
-    <row r="256" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I255" s="147"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A256" s="4">
         <v>40687</v>
       </c>
@@ -10995,9 +10995,9 @@
         <v>26</v>
       </c>
       <c r="G256" s="37"/>
-      <c r="I256" s="153"/>
-    </row>
-    <row r="257" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I256" s="147"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A257" s="4">
         <v>40689</v>
       </c>
@@ -11015,9 +11015,9 @@
         <v>26</v>
       </c>
       <c r="G257" s="37"/>
-      <c r="I257" s="153"/>
-    </row>
-    <row r="258" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I257" s="147"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A258" s="4">
         <v>40691</v>
       </c>
@@ -11037,9 +11037,9 @@
         <v>26</v>
       </c>
       <c r="G258" s="37"/>
-      <c r="I258" s="153"/>
-    </row>
-    <row r="259" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I258" s="147"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A259" s="4">
         <v>40693</v>
       </c>
@@ -11059,9 +11059,9 @@
         <v>26</v>
       </c>
       <c r="G259" s="37"/>
-      <c r="I259" s="153"/>
-    </row>
-    <row r="260" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I259" s="147"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A260" s="4">
         <v>40695</v>
       </c>
@@ -11079,9 +11079,9 @@
         <v>26</v>
       </c>
       <c r="G260" s="37"/>
-      <c r="I260" s="153"/>
-    </row>
-    <row r="261" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I260" s="147"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A261" s="4">
         <v>40697</v>
       </c>
@@ -11101,9 +11101,9 @@
         <v>26</v>
       </c>
       <c r="G261" s="37"/>
-      <c r="I261" s="153"/>
-    </row>
-    <row r="262" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I261" s="147"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A262" s="4">
         <v>40699</v>
       </c>
@@ -11125,9 +11125,9 @@
       <c r="G262" s="37">
         <v>1</v>
       </c>
-      <c r="I262" s="153"/>
-    </row>
-    <row r="263" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I262" s="147"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A263" s="4">
         <v>40701</v>
       </c>
@@ -11149,9 +11149,9 @@
       <c r="G263" s="37">
         <v>1</v>
       </c>
-      <c r="I263" s="153"/>
-    </row>
-    <row r="264" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I263" s="147"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A264" s="4">
         <v>40703</v>
       </c>
@@ -11173,9 +11173,9 @@
       <c r="G264" s="37">
         <v>1</v>
       </c>
-      <c r="I264" s="153"/>
-    </row>
-    <row r="265" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I264" s="147"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A265" s="4">
         <v>40705</v>
       </c>
@@ -11195,9 +11195,9 @@
         <v>26</v>
       </c>
       <c r="G265" s="37"/>
-      <c r="I265" s="153"/>
-    </row>
-    <row r="266" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I265" s="147"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A266" s="4">
         <v>40707</v>
       </c>
@@ -11217,9 +11217,9 @@
         <v>26</v>
       </c>
       <c r="G266" s="37"/>
-      <c r="I266" s="153"/>
-    </row>
-    <row r="267" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I266" s="147"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A267" s="4">
         <v>40709</v>
       </c>
@@ -11237,9 +11237,9 @@
         <v>26</v>
       </c>
       <c r="G267" s="37"/>
-      <c r="I267" s="153"/>
-    </row>
-    <row r="268" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I267" s="147"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A268" s="4">
         <v>40711</v>
       </c>
@@ -11257,9 +11257,9 @@
         <v>26</v>
       </c>
       <c r="G268" s="37"/>
-      <c r="I268" s="153"/>
-    </row>
-    <row r="269" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I268" s="147"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A269" s="4">
         <v>40713</v>
       </c>
@@ -11279,9 +11279,9 @@
         <v>26</v>
       </c>
       <c r="G269" s="37"/>
-      <c r="I269" s="153"/>
-    </row>
-    <row r="270" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I269" s="147"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A270" s="4">
         <v>40715</v>
       </c>
@@ -11303,9 +11303,9 @@
       <c r="G270" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="I270" s="153"/>
-    </row>
-    <row r="271" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I270" s="147"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A271" s="4">
         <v>40717</v>
       </c>
@@ -11325,9 +11325,9 @@
         <v>26</v>
       </c>
       <c r="G271" s="37"/>
-      <c r="I271" s="153"/>
-    </row>
-    <row r="272" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I271" s="147"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A272" s="4">
         <v>40719</v>
       </c>
@@ -11347,9 +11347,9 @@
         <v>26</v>
       </c>
       <c r="G272" s="37"/>
-      <c r="I272" s="153"/>
-    </row>
-    <row r="273" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I272" s="147"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A273" s="4">
         <v>40721</v>
       </c>
@@ -11369,9 +11369,9 @@
         <v>26</v>
       </c>
       <c r="G273" s="37"/>
-      <c r="I273" s="153"/>
-    </row>
-    <row r="274" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I273" s="147"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A274" s="4">
         <v>40723</v>
       </c>
@@ -11391,9 +11391,9 @@
         <v>26</v>
       </c>
       <c r="G274" s="37"/>
-      <c r="I274" s="153"/>
-    </row>
-    <row r="275" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I274" s="147"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A275" s="4">
         <v>40725</v>
       </c>
@@ -11413,9 +11413,9 @@
         <v>26</v>
       </c>
       <c r="G275" s="37"/>
-      <c r="I275" s="153"/>
-    </row>
-    <row r="276" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I275" s="147"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A276" s="4">
         <v>40727</v>
       </c>
@@ -11435,9 +11435,9 @@
         <v>26</v>
       </c>
       <c r="G276" s="37"/>
-      <c r="I276" s="153"/>
-    </row>
-    <row r="277" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I276" s="147"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A277" s="4">
         <v>40729</v>
       </c>
@@ -11455,9 +11455,9 @@
         <v>26</v>
       </c>
       <c r="G277" s="37"/>
-      <c r="I277" s="153"/>
-    </row>
-    <row r="278" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I277" s="147"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A278" s="4">
         <v>40731</v>
       </c>
@@ -11475,9 +11475,9 @@
         <v>26</v>
       </c>
       <c r="G278" s="37"/>
-      <c r="I278" s="153"/>
-    </row>
-    <row r="279" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I278" s="147"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A279" s="4">
         <v>40733</v>
       </c>
@@ -11497,9 +11497,9 @@
         <v>26</v>
       </c>
       <c r="G279" s="37"/>
-      <c r="I279" s="153"/>
-    </row>
-    <row r="280" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I279" s="147"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A280" s="4">
         <v>40735</v>
       </c>
@@ -11521,9 +11521,9 @@
       <c r="G280" s="37">
         <v>1</v>
       </c>
-      <c r="I280" s="153"/>
-    </row>
-    <row r="281" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I280" s="147"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A281" s="4">
         <v>40737</v>
       </c>
@@ -11545,9 +11545,9 @@
       <c r="G281" s="37">
         <v>1</v>
       </c>
-      <c r="I281" s="153"/>
-    </row>
-    <row r="282" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I281" s="147"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A282" s="4">
         <v>40739</v>
       </c>
@@ -11567,9 +11567,9 @@
         <v>26</v>
       </c>
       <c r="G282" s="37"/>
-      <c r="I282" s="153"/>
-    </row>
-    <row r="283" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I282" s="147"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A283" s="4">
         <v>40741</v>
       </c>
@@ -11587,9 +11587,9 @@
         <v>26</v>
       </c>
       <c r="G283" s="37"/>
-      <c r="I283" s="153"/>
-    </row>
-    <row r="284" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I283" s="147"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A284" s="4">
         <v>40743</v>
       </c>
@@ -11607,9 +11607,9 @@
         <v>26</v>
       </c>
       <c r="G284" s="37"/>
-      <c r="I284" s="153"/>
-    </row>
-    <row r="285" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I284" s="147"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A285" s="4">
         <v>40745</v>
       </c>
@@ -11627,9 +11627,9 @@
         <v>26</v>
       </c>
       <c r="G285" s="37"/>
-      <c r="I285" s="153"/>
-    </row>
-    <row r="286" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I285" s="147"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A286" s="4">
         <v>40747</v>
       </c>
@@ -11647,9 +11647,9 @@
         <v>26</v>
       </c>
       <c r="G286" s="37"/>
-      <c r="I286" s="153"/>
-    </row>
-    <row r="287" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I286" s="147"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A287" s="4">
         <v>40749</v>
       </c>
@@ -11667,9 +11667,9 @@
         <v>3</v>
       </c>
       <c r="G287" s="37"/>
-      <c r="I287" s="153"/>
-    </row>
-    <row r="288" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I287" s="147"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A288" s="4">
         <v>40751</v>
       </c>
@@ -11689,9 +11689,9 @@
         <v>26</v>
       </c>
       <c r="G288" s="37"/>
-      <c r="I288" s="153"/>
-    </row>
-    <row r="289" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I288" s="147"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A289" s="4">
         <v>40753</v>
       </c>
@@ -11711,9 +11711,9 @@
         <v>26</v>
       </c>
       <c r="G289" s="37"/>
-      <c r="I289" s="153"/>
-    </row>
-    <row r="290" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I289" s="147"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A290" s="4">
         <v>40755</v>
       </c>
@@ -11733,9 +11733,9 @@
         <v>26</v>
       </c>
       <c r="G290" s="37"/>
-      <c r="I290" s="153"/>
-    </row>
-    <row r="291" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I290" s="147"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A291" s="4">
         <v>40757</v>
       </c>
@@ -11755,9 +11755,9 @@
         <v>26</v>
       </c>
       <c r="G291" s="37"/>
-      <c r="I291" s="153"/>
-    </row>
-    <row r="292" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I291" s="147"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A292" s="4">
         <v>40759</v>
       </c>
@@ -11777,9 +11777,9 @@
         <v>26</v>
       </c>
       <c r="G292" s="37"/>
-      <c r="I292" s="153"/>
-    </row>
-    <row r="293" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I292" s="147"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A293" s="4">
         <v>40761</v>
       </c>
@@ -11797,9 +11797,9 @@
         <v>26</v>
       </c>
       <c r="G293" s="37"/>
-      <c r="I293" s="153"/>
-    </row>
-    <row r="294" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I293" s="147"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A294" s="4">
         <v>40763</v>
       </c>
@@ -11817,9 +11817,9 @@
         <v>26</v>
       </c>
       <c r="G294" s="37"/>
-      <c r="I294" s="153"/>
-    </row>
-    <row r="295" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I294" s="147"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A295" s="4">
         <v>40765</v>
       </c>
@@ -11839,9 +11839,9 @@
         <v>26</v>
       </c>
       <c r="G295" s="37"/>
-      <c r="I295" s="153"/>
-    </row>
-    <row r="296" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I295" s="147"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A296" s="4">
         <v>40767</v>
       </c>
@@ -11861,9 +11861,9 @@
         <v>26</v>
       </c>
       <c r="G296" s="37"/>
-      <c r="I296" s="153"/>
-    </row>
-    <row r="297" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I296" s="147"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A297" s="4">
         <v>40769</v>
       </c>
@@ -11883,9 +11883,9 @@
         <v>26</v>
       </c>
       <c r="G297" s="37"/>
-      <c r="I297" s="153"/>
-    </row>
-    <row r="298" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I297" s="147"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A298" s="4">
         <v>40771</v>
       </c>
@@ -11905,9 +11905,9 @@
         <v>26</v>
       </c>
       <c r="G298" s="37"/>
-      <c r="I298" s="153"/>
-    </row>
-    <row r="299" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I298" s="147"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A299" s="4">
         <v>40773</v>
       </c>
@@ -11925,9 +11925,9 @@
         <v>26</v>
       </c>
       <c r="G299" s="37"/>
-      <c r="I299" s="153"/>
-    </row>
-    <row r="300" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I299" s="147"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A300" s="4">
         <v>40775</v>
       </c>
@@ -11945,9 +11945,9 @@
         <v>26</v>
       </c>
       <c r="G300" s="37"/>
-      <c r="I300" s="153"/>
-    </row>
-    <row r="301" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I300" s="147"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A301" s="4">
         <v>40777</v>
       </c>
@@ -11967,9 +11967,9 @@
         <v>26</v>
       </c>
       <c r="G301" s="37"/>
-      <c r="I301" s="153"/>
-    </row>
-    <row r="302" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I301" s="147"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A302" s="4">
         <v>40779</v>
       </c>
@@ -11989,9 +11989,9 @@
         <v>26</v>
       </c>
       <c r="G302" s="37"/>
-      <c r="I302" s="153"/>
-    </row>
-    <row r="303" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I302" s="147"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A303" s="4">
         <v>40781</v>
       </c>
@@ -12013,9 +12013,9 @@
       <c r="G303" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="I303" s="153"/>
-    </row>
-    <row r="304" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I303" s="147"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A304" s="4">
         <v>40783</v>
       </c>
@@ -12033,9 +12033,9 @@
         <v>3</v>
       </c>
       <c r="G304" s="37"/>
-      <c r="I304" s="153"/>
-    </row>
-    <row r="305" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I304" s="147"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A305" s="4">
         <v>40785</v>
       </c>
@@ -12053,9 +12053,9 @@
         <v>3</v>
       </c>
       <c r="G305" s="37"/>
-      <c r="I305" s="153"/>
-    </row>
-    <row r="306" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I305" s="147"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A306" s="4">
         <v>40787</v>
       </c>
@@ -12073,9 +12073,9 @@
         <v>26</v>
       </c>
       <c r="G306" s="37"/>
-      <c r="I306" s="153"/>
-    </row>
-    <row r="307" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I306" s="147"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A307" s="4">
         <v>40789</v>
       </c>
@@ -12093,9 +12093,9 @@
         <v>3</v>
       </c>
       <c r="G307" s="37"/>
-      <c r="I307" s="153"/>
-    </row>
-    <row r="308" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I307" s="147"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A308" s="4">
         <v>40791</v>
       </c>
@@ -12117,9 +12117,9 @@
       <c r="G308" s="37">
         <v>1</v>
       </c>
-      <c r="I308" s="153"/>
-    </row>
-    <row r="309" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I308" s="147"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A309" s="4">
         <v>40795</v>
       </c>
@@ -12139,9 +12139,9 @@
         <v>495</v>
       </c>
       <c r="G309" s="37"/>
-      <c r="I309" s="153"/>
-    </row>
-    <row r="310" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I309" s="147"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A310" s="4">
         <v>40799</v>
       </c>
@@ -12161,9 +12161,9 @@
         <v>495</v>
       </c>
       <c r="G310" s="37"/>
-      <c r="I310" s="153"/>
-    </row>
-    <row r="311" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I310" s="147"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A311" s="4">
         <v>40805</v>
       </c>
@@ -12181,9 +12181,9 @@
         <v>495</v>
       </c>
       <c r="G311" s="37"/>
-      <c r="I311" s="153"/>
-    </row>
-    <row r="312" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I311" s="147"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A312" s="4">
         <v>40811</v>
       </c>
@@ -12201,9 +12201,9 @@
         <v>3</v>
       </c>
       <c r="G312" s="37"/>
-      <c r="I312" s="153"/>
-    </row>
-    <row r="313" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I312" s="147"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A313" s="4">
         <v>40819</v>
       </c>
@@ -12221,9 +12221,9 @@
         <v>3</v>
       </c>
       <c r="G313" s="37"/>
-      <c r="I313" s="153"/>
-    </row>
-    <row r="314" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I313" s="147"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A314" s="4">
         <v>40821</v>
       </c>
@@ -12241,9 +12241,9 @@
         <v>3</v>
       </c>
       <c r="G314" s="37"/>
-      <c r="I314" s="153"/>
-    </row>
-    <row r="315" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I314" s="147"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A315" s="4">
         <v>40827</v>
       </c>
@@ -12261,9 +12261,9 @@
         <v>3</v>
       </c>
       <c r="G315" s="37"/>
-      <c r="I315" s="153"/>
-    </row>
-    <row r="316" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I315" s="147"/>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A316" s="4">
         <v>40829</v>
       </c>
@@ -12281,9 +12281,9 @@
         <v>3</v>
       </c>
       <c r="G316" s="37"/>
-      <c r="I316" s="153"/>
-    </row>
-    <row r="317" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I316" s="147"/>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A317" s="19">
         <v>43090</v>
       </c>
@@ -12304,13 +12304,7 @@
       <c r="I317" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M317">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:M317"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
@@ -12353,15 +12347,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
       <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -19168,14 +19162,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -23120,14 +23114,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -27658,14 +27652,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -32197,14 +32191,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -36843,14 +36837,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -41292,14 +41286,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="128" t="s">
@@ -47050,10 +47044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="150"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -48535,14 +48529,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -52597,14 +52591,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -57118,14 +57112,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -61511,14 +61505,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -66069,14 +66063,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -70556,14 +70550,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -74463,14 +74457,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
